--- a/reports/estadisticos/RIR BOB.xlsx
+++ b/reports/estadisticos/RIR BOB.xlsx
@@ -11,42 +11,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>SEGUROS PERSONALES</t>
-  </si>
-  <si>
-    <t>INVERSIONES QUE RESPALDAN LOS RECURSOS DE INVERSIÓN REQUERIDOS 30 DE JUNIO DE 2022</t>
-  </si>
-  <si>
-    <t>EXPRESADO EN $US</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>SEGUROS DE PERSONAS</t>
+  </si>
+  <si>
+    <t>INVERSIONES QUE RESPALDAN LOS RECURSOS DE INVERSIÓN REQUERIDOS</t>
+  </si>
+  <si>
+    <t>AL 30 DE JUNIO DE 2022 - EXPRESADO EN BOLIVIANOS</t>
   </si>
   <si>
     <t>COMPOSICION DE INVERSIONES ADMISIBLES</t>
   </si>
   <si>
-    <t>BUP</t>
-  </si>
-  <si>
-    <t>LBC</t>
-  </si>
-  <si>
-    <t>NAL</t>
-  </si>
-  <si>
-    <t>ALI</t>
-  </si>
-  <si>
-    <t>CRS</t>
-  </si>
-  <si>
-    <t>UVD</t>
-  </si>
-  <si>
-    <t>SVF</t>
-  </si>
-  <si>
-    <t>SCV</t>
+    <t>BUP P</t>
+  </si>
+  <si>
+    <t>LVI P</t>
+  </si>
+  <si>
+    <t>LBC P</t>
+  </si>
+  <si>
+    <t>NAL P</t>
+  </si>
+  <si>
+    <t>ALI P</t>
+  </si>
+  <si>
+    <t>CRS P</t>
+  </si>
+  <si>
+    <t>UVD P</t>
+  </si>
+  <si>
+    <t>SVF P</t>
+  </si>
+  <si>
+    <t>SCV P</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -85,34 +88,43 @@
     <t>SEGUROS GENERALES</t>
   </si>
   <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>BIS</t>
-  </si>
-  <si>
-    <t>CRU</t>
-  </si>
-  <si>
-    <t>CRC</t>
-  </si>
-  <si>
-    <t>MSC</t>
+    <t>LBC G</t>
+  </si>
+  <si>
+    <t>CRI G</t>
+  </si>
+  <si>
+    <t>ILL G</t>
+  </si>
+  <si>
+    <t>ALI G</t>
+  </si>
+  <si>
+    <t>BIS G</t>
+  </si>
+  <si>
+    <t>CRU G</t>
+  </si>
+  <si>
+    <t>NAL G</t>
+  </si>
+  <si>
+    <t>UNI G</t>
+  </si>
+  <si>
+    <t>CRC G</t>
+  </si>
+  <si>
+    <t>MSC G</t>
   </si>
   <si>
     <t>SEGUROS PREPAGO</t>
   </si>
   <si>
-    <t>INN</t>
-  </si>
-  <si>
-    <t>FMS</t>
-  </si>
-  <si>
-    <t>EMITIDO EL 26 DE enero DE 2023 a las 00:04:11</t>
+    <t>INN R</t>
+  </si>
+  <si>
+    <t>FMS R</t>
   </si>
 </sst>
 </file>
@@ -240,7 +252,6 @@
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4"/>
-    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3" applyAlignment="1">
       <alignment indent="3" relativeIndent="3"/>
@@ -256,10 +267,13 @@
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="3" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" indent="1" relativeIndent="2" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+      <alignment horizontal="right" indent="1" relativeIndent="2" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="4" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" indent="1" relativeIndent="2" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="4"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="4"/>
@@ -276,13 +290,13 @@
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="5"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="5"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment indent="1" relativeIndent="2"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyAlignment="1">
+      <alignment horizontal="right" indent="1" relativeIndent="2" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="3" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFont="1" fontId="3" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" indent="1" relativeIndent="2" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -293,22 +307,12 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="360000" y="72000"/>
+    <xdr:ext cx="1809750" cy="819150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="logo" id="2" name="logo" title="logo"/>
+        <xdr:cNvPr descr="aps-logo.png" id="2" name="aps-logo.png" title="aps-logo.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -322,7 +326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5876925" cy="2819400"/>
+          <a:ext cx="1809750" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -330,48 +334,35 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -382,10 +373,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -396,73 +388,60 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
+      <c r="K10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="10" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="13" t="n">
@@ -492,9 +471,12 @@
       <c r="J11" s="13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="K11" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="13" t="n">
@@ -524,9 +506,12 @@
       <c r="J12" s="13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="K12" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="13" t="n">
@@ -556,9 +541,12 @@
       <c r="J13" s="13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
+      <c r="K13" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="13" t="n">
@@ -588,62 +576,88 @@
       <c r="J14" s="13" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="0" t="s">
+      <c r="K14" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
+      <c r="B15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -655,10 +669,11 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -670,198 +685,222 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="10" t="s">
+      <c r="G23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13" t="n">
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13" t="n">
         <v>93659641</v>
       </c>
-      <c r="F23" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13" t="n">
+      <c r="F24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="n">
         <v>93659641</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="13" t="n">
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13" t="n">
         <v>15609940</v>
       </c>
-      <c r="F24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="13" t="n">
+      <c r="F25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13" t="n">
         <v>15609940</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13" t="n">
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13" t="n">
         <v>291345371</v>
       </c>
-      <c r="F25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13" t="n">
+      <c r="F26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13" t="n">
         <v>291345371</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24" t="n">
+    <row r="27" spans="1:12">
+      <c r="A27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24" t="n">
         <v>400614952</v>
       </c>
-      <c r="F26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="24" t="n">
+      <c r="F27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="24" t="n">
         <v>400614952</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+    <row r="28" spans="1:1">
+      <c r="A28" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -869,43 +908,37 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="10" t="s">
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10" t="s">
-        <v>15</v>
+      <c r="A35" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B35" s="13" t="n">
         <v>0</v>
@@ -918,8 +951,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10" t="s">
-        <v>17</v>
+      <c r="A36" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B36" s="13" t="n">
         <v>0</v>
@@ -932,69 +965,76 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="0" t="s">
+      <c r="A37" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="1"/>
+      <c r="B37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:A9"/>
-    <mergeCell ref="B9:B9"/>
-    <mergeCell ref="C9:C9"/>
-    <mergeCell ref="D9:D9"/>
-    <mergeCell ref="E9:E9"/>
-    <mergeCell ref="F9:F9"/>
-    <mergeCell ref="G9:G9"/>
-    <mergeCell ref="H9:H9"/>
-    <mergeCell ref="I9:I9"/>
-    <mergeCell ref="J9:J9"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:A22"/>
-    <mergeCell ref="B22:B22"/>
-    <mergeCell ref="C22:C22"/>
-    <mergeCell ref="D22:D22"/>
-    <mergeCell ref="E22:E22"/>
-    <mergeCell ref="F22:F22"/>
-    <mergeCell ref="G22:G22"/>
-    <mergeCell ref="H22:H22"/>
-    <mergeCell ref="I22:I22"/>
-    <mergeCell ref="J22:J22"/>
-    <mergeCell ref="K22:K22"/>
-    <mergeCell ref="A30:D30"/>
+  <mergeCells count="36">
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:A10"/>
+    <mergeCell ref="B10:B10"/>
+    <mergeCell ref="C10:C10"/>
+    <mergeCell ref="D10:D10"/>
+    <mergeCell ref="E10:E10"/>
+    <mergeCell ref="F10:F10"/>
+    <mergeCell ref="G10:G10"/>
+    <mergeCell ref="H10:H10"/>
+    <mergeCell ref="I10:I10"/>
+    <mergeCell ref="J10:J10"/>
+    <mergeCell ref="K10:K10"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A23:A23"/>
+    <mergeCell ref="B23:B23"/>
+    <mergeCell ref="C23:C23"/>
+    <mergeCell ref="D23:D23"/>
+    <mergeCell ref="E23:E23"/>
+    <mergeCell ref="F23:F23"/>
+    <mergeCell ref="G23:G23"/>
+    <mergeCell ref="H23:H23"/>
+    <mergeCell ref="I23:I23"/>
+    <mergeCell ref="J23:J23"/>
+    <mergeCell ref="K23:K23"/>
+    <mergeCell ref="L23:L23"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:A33"/>
-    <mergeCell ref="B33:B33"/>
-    <mergeCell ref="C33:C33"/>
-    <mergeCell ref="D33:D33"/>
-    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:A34"/>
+    <mergeCell ref="B34:B34"/>
+    <mergeCell ref="C34:C34"/>
+    <mergeCell ref="D34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
